--- a/автобусы.xlsx
+++ b/автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Автобус</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Гулина И.К.</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>Афанасьев М.Т.</t>
   </si>
   <si>
@@ -64,22 +58,171 @@
     <t>Зуйко О.В.</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>2.1</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>id водителя</t>
+  </si>
+  <si>
+    <t>id кондуктора</t>
+  </si>
+  <si>
+    <t>Общая таблица</t>
+  </si>
+  <si>
+    <t>Сотрудники</t>
+  </si>
+  <si>
+    <t>дата рождения</t>
+  </si>
+  <si>
+    <t>номер тел.</t>
+  </si>
+  <si>
+    <t>должность</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>id автобуса</t>
+  </si>
+  <si>
+    <t>Адреса</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>Дом</t>
+  </si>
+  <si>
+    <t>Подъезд</t>
+  </si>
+  <si>
+    <t>квартира</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>ФИО можно удалить но без этого же не так удобно, конечно если программа будет выводить результат в удобном интерфейсе можно и убрать ФИО, id привязка не нуждается в дублировании ФИО</t>
+  </si>
+  <si>
+    <t>Ставрополь</t>
+  </si>
+  <si>
+    <t>Михайловск</t>
+  </si>
+  <si>
+    <t>Надежда</t>
+  </si>
+  <si>
+    <t>Карла-Маркса</t>
+  </si>
+  <si>
+    <t>Почтовая</t>
+  </si>
+  <si>
+    <t>Ленина</t>
+  </si>
+  <si>
+    <t>Доваторцев</t>
+  </si>
+  <si>
+    <t>Космонавтов</t>
+  </si>
+  <si>
+    <t>Мраморная</t>
+  </si>
+  <si>
+    <t>Булкина</t>
+  </si>
+  <si>
+    <t>Обслуживание Автобусов</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Игнатьев И.Л.</t>
+  </si>
+  <si>
+    <t>Самойлов М.С.</t>
+  </si>
+  <si>
+    <t>Механник</t>
+  </si>
+  <si>
+    <t>Запчасть</t>
+  </si>
+  <si>
+    <t>Замена (заправка)</t>
+  </si>
+  <si>
+    <t>Километраж</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>360л</t>
+  </si>
+  <si>
+    <t>200л</t>
+  </si>
+  <si>
+    <t>250л</t>
+  </si>
+  <si>
+    <t>Ремень генератора</t>
+  </si>
+  <si>
+    <t>замена</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,16 +234,49 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -194,11 +370,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,19 +648,235 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,97 +1183,1218 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2" max="4" width="18.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="15" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G2" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E4" s="27">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="27">
+        <v>4</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="22">
+        <v>31458</v>
+      </c>
+      <c r="E10" s="10">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20">
+        <v>33035</v>
+      </c>
+      <c r="E11" s="9">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20">
+        <v>30701</v>
+      </c>
+      <c r="E12" s="9">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="21">
+        <v>34884</v>
+      </c>
+      <c r="E13" s="16">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="C14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="22">
+        <v>35327</v>
+      </c>
+      <c r="E14" s="10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="20">
+        <v>32288</v>
+      </c>
+      <c r="E15" s="9">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="20">
+        <v>36236</v>
+      </c>
+      <c r="E16" s="9">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32">
+        <v>8</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="70">
+        <v>32108</v>
+      </c>
+      <c r="E17" s="67">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>9</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="71">
+        <v>32249</v>
+      </c>
+      <c r="E18" s="66">
+        <v>654</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>10</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="72">
+        <v>33050</v>
+      </c>
+      <c r="E19" s="65">
+        <v>191</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>1</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="58">
+        <v>26</v>
+      </c>
+      <c r="F23" s="41">
+        <v>3</v>
+      </c>
+      <c r="G23" s="41">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <v>2</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="59">
+        <v>37</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
+        <v>3</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="59">
+        <v>89</v>
+      </c>
+      <c r="F25" s="46">
+        <v>2</v>
+      </c>
+      <c r="G25" s="46">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B26" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="60">
+        <v>41</v>
+      </c>
+      <c r="F26" s="48">
+        <v>5</v>
+      </c>
+      <c r="G26" s="48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>5</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="58">
+        <v>17</v>
+      </c>
+      <c r="F27" s="41">
+        <v>4</v>
+      </c>
+      <c r="G27" s="41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
+        <v>6</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C28" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="59">
+        <v>3</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B29" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="59">
+        <v>64</v>
+      </c>
+      <c r="F29" s="46">
+        <v>3</v>
+      </c>
+      <c r="G29" s="46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B30" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="61">
+        <v>23</v>
+      </c>
+      <c r="F30" s="51">
+        <v>1</v>
+      </c>
+      <c r="G30" s="51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="73"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="75"/>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="78">
+        <v>123.456</v>
+      </c>
+      <c r="C34" s="36">
+        <v>45087</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="78">
+        <v>165.315</v>
+      </c>
+      <c r="C35" s="36">
+        <v>45087</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="78">
+        <v>154.24100000000001</v>
+      </c>
+      <c r="C36" s="36">
+        <v>45087</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="78">
+        <v>137.821</v>
+      </c>
+      <c r="C37" s="36">
+        <v>45087</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="37">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F208" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
